--- a/exp_design2.xlsx
+++ b/exp_design2.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="11070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="11070" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="273">
   <si>
     <t>1;1;phenol;1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -686,6 +687,204 @@
   </si>
   <si>
     <t>6;3;phenol;0</t>
+  </si>
+  <si>
+    <t>1;4;phenol;1000</t>
+  </si>
+  <si>
+    <t>1;4;phenol;500</t>
+  </si>
+  <si>
+    <t>2;4;phenol;1000</t>
+  </si>
+  <si>
+    <t>2;4;phenol;500</t>
+  </si>
+  <si>
+    <t>3;4;phenol;1000</t>
+  </si>
+  <si>
+    <t>3;4;phenol;500</t>
+  </si>
+  <si>
+    <t>4;4;phenol;500</t>
+  </si>
+  <si>
+    <t>4;4;phenol;1000</t>
+  </si>
+  <si>
+    <t>5;4;phenol;500</t>
+  </si>
+  <si>
+    <t>5;4;phenol;1000</t>
+  </si>
+  <si>
+    <t>6;4;phenol;1000</t>
+  </si>
+  <si>
+    <t>6;4;phenol;500</t>
+  </si>
+  <si>
+    <t>1;4;phenol;100</t>
+  </si>
+  <si>
+    <t>1;4;phenol;50</t>
+  </si>
+  <si>
+    <t>2;4;phenol;100</t>
+  </si>
+  <si>
+    <t>2;4;phenol;50</t>
+  </si>
+  <si>
+    <t>3;4;phenol;100</t>
+  </si>
+  <si>
+    <t>3;4;phenol;50</t>
+  </si>
+  <si>
+    <t>4;4;phenol;50</t>
+  </si>
+  <si>
+    <t>4;4;phenol;100</t>
+  </si>
+  <si>
+    <t>5;4;phenol;50</t>
+  </si>
+  <si>
+    <t>5;4;phenol;100</t>
+  </si>
+  <si>
+    <t>6;4;phenol;100</t>
+  </si>
+  <si>
+    <t>6;4;phenol;50</t>
+  </si>
+  <si>
+    <t>1;4;phenol;10</t>
+  </si>
+  <si>
+    <t>1;4;phenol;5</t>
+  </si>
+  <si>
+    <t>2;4;phenol;10</t>
+  </si>
+  <si>
+    <t>2;4;phenol;5</t>
+  </si>
+  <si>
+    <t>3;4;phenol;10</t>
+  </si>
+  <si>
+    <t>3;4;phenol;5</t>
+  </si>
+  <si>
+    <t>4;4;phenol;5</t>
+  </si>
+  <si>
+    <t>4;4;phenol;10</t>
+  </si>
+  <si>
+    <t>5;4;phenol;5</t>
+  </si>
+  <si>
+    <t>5;4;phenol;10</t>
+  </si>
+  <si>
+    <t>6;4;phenol;10</t>
+  </si>
+  <si>
+    <t>6;4;phenol;5</t>
+  </si>
+  <si>
+    <t>1;4;phenol;1</t>
+  </si>
+  <si>
+    <t>1;4;phenol;0.5</t>
+  </si>
+  <si>
+    <t>2;4;phenol;1</t>
+  </si>
+  <si>
+    <t>2;4;phenol;0.5</t>
+  </si>
+  <si>
+    <t>3;4;phenol;1</t>
+  </si>
+  <si>
+    <t>3;4;phenol;0.5</t>
+  </si>
+  <si>
+    <t>4;4;phenol;0.5</t>
+  </si>
+  <si>
+    <t>4;4;phenol;1</t>
+  </si>
+  <si>
+    <t>5;4;phenol;0.5</t>
+  </si>
+  <si>
+    <t>5;4;phenol;1</t>
+  </si>
+  <si>
+    <t>6;4;phenol;1</t>
+  </si>
+  <si>
+    <t>6;4;phenol;0.5</t>
+  </si>
+  <si>
+    <t>1;4;phenol;0.1</t>
+  </si>
+  <si>
+    <t>1;4;phenol;0.05</t>
+  </si>
+  <si>
+    <t>2;4;phenol;0.1</t>
+  </si>
+  <si>
+    <t>2;4;phenol;0.05</t>
+  </si>
+  <si>
+    <t>3;4;phenol;0.1</t>
+  </si>
+  <si>
+    <t>3;4;phenol;0.05</t>
+  </si>
+  <si>
+    <t>4;4;phenol;0.05</t>
+  </si>
+  <si>
+    <t>4;4;phenol;0.1</t>
+  </si>
+  <si>
+    <t>5;4;phenol;0.05</t>
+  </si>
+  <si>
+    <t>5;4;phenol;0.1</t>
+  </si>
+  <si>
+    <t>6;4;phenol;0.1</t>
+  </si>
+  <si>
+    <t>6;4;phenol;0.05</t>
+  </si>
+  <si>
+    <t>1;4;phenol;0</t>
+  </si>
+  <si>
+    <t>2;4;phenol;0</t>
+  </si>
+  <si>
+    <t>3;4;phenol;0</t>
+  </si>
+  <si>
+    <t>4;4;phenol;0</t>
+  </si>
+  <si>
+    <t>5;4;phenol;0</t>
+  </si>
+  <si>
+    <t>6;4;phenol;0</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1060,7 +1259,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1297,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1136,7 +1335,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1174,7 +1373,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1212,7 +1411,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1250,7 +1449,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1315,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A2:L7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1600,7 +1799,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1877,4 +2076,288 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>